--- a/数据整理/stocks/其他/8035-东京电子.xlsx
+++ b/数据整理/stocks/其他/8035-东京电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/8035-东京电子.xlsx
+++ b/数据整理/stocks/其他/8035-东京电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/8035-东京电子.xlsx
+++ b/数据整理/stocks/其他/8035-东京电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/8035-东京电子.xlsx
+++ b/数据整理/stocks/其他/8035-东京电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -991,14 +1034,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -1007,14 +1140,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1023,13 +1156,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/8035-东京电子.xlsx
+++ b/数据整理/stocks/其他/8035-东京电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -1140,14 +1273,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -1156,14 +1289,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -1172,13 +1305,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/8035-东京电子.xlsx
+++ b/数据整理/stocks/其他/8035-东京电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1406,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -1289,14 +1422,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1305,14 +1438,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -1321,13 +1454,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/8035-东京电子.xlsx
+++ b/数据整理/stocks/其他/8035-东京电子.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050015</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -612,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0555</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0555</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -744,26 +798,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0575</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -782,26 +836,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0575</t>
+          <t>0.0333</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -866,36 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0478</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -904,36 +958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0478</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +1022,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -998,36 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1036,36 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1154,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1140,26 +1194,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1178,26 +1232,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1286,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1272,26 +1326,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>90.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0555</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1310,26 +1364,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.88</t>
+          <t>90.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0555</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1343,144 +1397,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.05</v>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>